--- a/entrada-grupo1.xlsx
+++ b/entrada-grupo1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper\5º semestre\MecSol\aps3MecSol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Insper\TransMecSol\aps3MecSol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3CC79-4FD8-4F2A-81D3-6319DEEF90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA606D-2B02-406D-AD9B-448F6CF6B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="4245" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23595" yWindow="2610" windowWidth="12990" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -79,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +87,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +200,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,17 +593,17 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
         <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -603,7 +613,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -623,19 +633,19 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
         <v>0</v>
       </c>
       <c r="C9" s="12"/>
@@ -643,15 +653,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +699,7 @@
         <v>210000000000</v>
       </c>
       <c r="D2" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" ref="D2:D14" si="0">0.1*0.2</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="E2" s="1"/>
@@ -708,7 +719,7 @@
         <v>210000000000</v>
       </c>
       <c r="D3" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -726,7 +737,7 @@
         <v>210000000000</v>
       </c>
       <c r="D4" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -741,7 +752,7 @@
         <v>210000000000</v>
       </c>
       <c r="D5" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -756,7 +767,7 @@
         <v>210000000000</v>
       </c>
       <c r="D6" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -765,13 +776,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>210000000000</v>
       </c>
       <c r="D7" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -786,7 +797,7 @@
         <v>210000000000</v>
       </c>
       <c r="D8" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -801,7 +812,7 @@
         <v>210000000000</v>
       </c>
       <c r="D9" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -816,7 +827,7 @@
         <v>210000000000</v>
       </c>
       <c r="D10" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -831,7 +842,7 @@
         <v>210000000000</v>
       </c>
       <c r="D11" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -846,7 +857,7 @@
         <v>210000000000</v>
       </c>
       <c r="D12" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -861,7 +872,7 @@
         <v>210000000000</v>
       </c>
       <c r="D13" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -876,9 +887,12 @@
         <v>210000000000</v>
       </c>
       <c r="D14" s="3">
-        <f>0.1*0.2</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/entrada-grupo1.xlsx
+++ b/entrada-grupo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Insper\TransMecSol\aps3MecSol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA606D-2B02-406D-AD9B-448F6CF6B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D272A-E083-468B-BDAB-B370C1FD5C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23595" yWindow="2610" windowWidth="12990" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="3720" windowWidth="18375" windowHeight="11520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
@@ -1151,7 +1151,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
@@ -1161,17 +1161,17 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="19">
         <v>2</v>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
